--- a/tests/test11.xlsx
+++ b/tests/test11.xlsx
@@ -1,18 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -71,13 +56,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -439,141 +425,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>